--- a/sanki_sitemap.xlsx
+++ b/sanki_sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamayuichi/Desktop/開発/sanki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425F493E-64C5-8D47-B102-1EEE4367DC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782193A2-AB34-7144-B429-F45BC2FB043E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="460" windowWidth="22340" windowHeight="20460" xr2:uid="{F489057D-42CC-3C4E-9FE6-39138F749F91}"/>
+    <workbookView xWindow="13180" yWindow="460" windowWidth="22340" windowHeight="20460" xr2:uid="{F489057D-42CC-3C4E-9FE6-39138F749F91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4077CC0C-EAC8-2F4B-9795-4BD3A8CD4217}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
